--- a/POPC/MATRIX/sequentiel.xlsx
+++ b/POPC/MATRIX/sequentiel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1452,6 +1452,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2133602928"/>
@@ -1464,6 +1478,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Matrix</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1529,8 +1604,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Initializing </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1572,6 +1708,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1780,6 +1948,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2086363424"/>
@@ -1792,6 +1974,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of matrix</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1857,8 +2100,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sending</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)  </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1900,6 +2204,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2108,6 +2444,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2086129360"/>
@@ -2120,6 +2470,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of matrix</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2185,8 +2596,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2228,6 +2700,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2436,6 +2940,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2084071456"/>
@@ -2448,6 +2966,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Matrix</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2513,8 +3092,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> "init + send + comput" time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2556,6 +3196,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7486,8 +8158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/POPC/MATRIX/sequentiel.xlsx
+++ b/POPC/MATRIX/sequentiel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1452,20 +1452,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2133602928"/>
@@ -1478,67 +1464,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Matrix</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1604,69 +1529,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Initializing </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>time (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1708,38 +1572,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1948,20 +1780,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2086363424"/>
@@ -1974,67 +1792,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of matrix</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2100,69 +1857,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sending</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time (s)  </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2204,38 +1900,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2444,20 +2108,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2086129360"/>
@@ -2470,67 +2120,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of matrix</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2596,69 +2185,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Computing</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> time (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2700,38 +2228,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2940,20 +2436,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-2084071456"/>
@@ -2966,67 +2448,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Matrix</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3092,69 +2513,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> "init + send + comput" time (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3196,38 +2556,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8158,8 +7486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
